--- a/fast_nlu/fast_nlu_everything.xlsx
+++ b/fast_nlu/fast_nlu_everything.xlsx
@@ -679,649 +679,649 @@
     <t>215</t>
   </si>
   <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d6011ff40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d6011fb50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d6011f580&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d6011f520&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d6011ffa0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d6011fe20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d6011f9d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d6011f910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d904d7d00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d904d7250&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d6011fe80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d6011fcd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734be80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b2e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734bb20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b2b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734bc10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734bca0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734baf0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b610&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734bbe0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b3a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734beb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b0a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b4f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734bbb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b640&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734bfd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b1c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b4c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b520&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734bee0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b490&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b6a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b340&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b250&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734bd90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b220&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734bdf0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734bc40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b6d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b430&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b310&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b190&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b8e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b400&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b730&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b370&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734bac0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734be20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734ba30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b760&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734bb80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b940&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b5b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b100&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734be50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734bc70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b880&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b7f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734bcd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734ba00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b7c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734bd30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b550&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b9a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734ba60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d172709d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d172705b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270850&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270880&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270eb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270760&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270e50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270df0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270d30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270dc0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734bd00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270610&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734bd60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270bb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270fd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270b20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d172708b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d172709a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d172701c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270ac0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270b80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d172702e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d172704c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d172701f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270190&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270070&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270220&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270340&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d172700a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d172703d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270100&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270970&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270370&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a7f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270730&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a9d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270e20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a9a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270d00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a070&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270d60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a130&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270f70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a730&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270af0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a940&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270640&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a820&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270250&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a5e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270310&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a190&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270be0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a1f0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270ca0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a550&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270f10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a310&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d17270a30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a160&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175430&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a4c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175220&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d1734b3d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d6011f550&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a460&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d141753d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a2e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175310&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a640&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175bb0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a760&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175e50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175c40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a8b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175b50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a0d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175c10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a490&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175be0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a3d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175ee0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a1c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175f10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a2b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175df0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a700&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175cd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a220&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175d90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a400&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175c70&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a850&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175ca0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a5b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175af0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a6a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175a90&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d5fb0a970&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4a5905ca60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4a5905c160&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175940&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4a5905c040&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175f40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4a5905ca30&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d141751c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4a5905c9d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175550&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4a5905c670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175460&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4a5905c640&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175b80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4a5905c280&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175580&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4a5905c2b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d141755e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4a5905c490&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d141758e0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4a5905c610&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175700&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4a5905c3a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d141753a0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4a5905c7c0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175880&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4a5905c910&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d141756d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4a5905cb20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175a00&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4a5905cb80&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175640&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4a5905cfd0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175820&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4a5905c130&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175ac0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4a5905cb50&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d141759d0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4a5905cf40&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175730&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4a5905cc10&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d141758b0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4a5905caf0&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d14175670&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4a5905ce20&gt;</t>
-  </si>
-  <si>
-    <t>&lt;xgboost.core.Booster object at 0x7f4d141757c0&gt;</t>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265c3d340&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265c3d910&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265c3d3a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bdbe50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bdbc10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bdb310&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bdbbb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bdb2b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bdb040&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bdb3a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bdb940&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bdb5e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265e91f10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265e91d30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265e91670&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265e91b80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265e91ac0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265e915b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265c4cfa0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265c4cfd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265c4cd30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265c4cf40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265baddf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bad100&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bad310&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6d730&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6da30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6de80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6d6d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6d8b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6d7c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6d8e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6a3d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6a400&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6a3a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6a490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6a4c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6a2e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6a8e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6a430&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd78340&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd78430&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd78280&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bb5ac0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bb5730&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bb5310&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bb5bb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bb59d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bb5340&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bb55b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bb5910&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb295760220&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb295760190&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb295760b20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b1f220&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bb5700&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b625b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb295760ac0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb295760b50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6fd00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6fc10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6f130&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6f160&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6f1f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6f040&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6feb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6fb80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6fe20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6f9a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6fee0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6fcd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6f430&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6ffa0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6f220&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6f1c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6f0a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6fdf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6f490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6fa00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6f190&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6faf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6f670&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6f2e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6fb50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6fe50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6fa30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6ffd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6fc40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6f2b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6f550&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6fac0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6ff40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6f100&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6fe80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6fbe0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6fbb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6ff10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6fb20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6f3a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6fd60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6f3d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6f0d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6f9d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6f070&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6fdc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6fca0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6fd90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265b6fa90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bfeb20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bfeaf0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bc1340&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bc14c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bc15e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bc1250&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bc15b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bc17f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bc1880&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bc1190&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bc1a30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bc1a90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bc1460&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bc1700&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bc1550&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bc1160&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bc1820&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bc1c10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bc1e50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bc19d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bc1f40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bc1970&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bc1370&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb265bc18b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd934f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd936d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93370&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93430&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93550&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93fd0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93340&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93580&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93730&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93520&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd935e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93820&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93460&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93640&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd931c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93df0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93f10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd935b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93f70&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93670&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd933a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93a90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93ee0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd933d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93880&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93f40&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93ac0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93fa0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd938e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93250&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93910&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd936a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93700&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93790&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd93eb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd937c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43490&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd434f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd434c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43520&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43730&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43580&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43550&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43610&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43640&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd435e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43670&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43760&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd437c0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd436d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43790&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43880&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43820&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43850&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd438b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd438e0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd435b0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43940&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd437f0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43910&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd439d0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43a30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43af0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43b20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43ac0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43a00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43a60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43970&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd439a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43b80&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43d00&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43a90&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43f10&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43e20&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43ca0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43d30&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43dc0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43eb0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43400&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd433a0&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43220&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43e50&gt;</t>
+  </si>
+  <si>
+    <t>&lt;xgboost.core.Booster object at 0x7fb25cd43fa0&gt;</t>
   </si>
   <si>
     <t>['nb_words_question1']</t>
